--- a/SampleProject/Common/Table/System_Enum.xlsx
+++ b/SampleProject/Common/Table/System_Enum.xlsx
@@ -736,10 +736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STATION_REPAIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STATION_PICKUP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,6 +801,10 @@
   </si>
   <si>
     <t>STATION_PRJNUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATION_SRTMT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C112" s="1">
         <v>1005</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" s="1">
         <v>2002</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C119" s="1">
         <v>2003</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C120" s="1">
         <v>2004</v>
@@ -2125,12 +2125,12 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2138,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>82</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C130" s="1">
         <v>11</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C131" s="1">
         <v>12</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C134" s="1">
         <v>21</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C135" s="1">
         <v>22</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C137" s="1">
         <v>31</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C139" s="1">
         <v>41</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C141" s="1">
         <v>51</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C143" s="1">
         <v>61</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C145" s="1">
         <v>101</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C146" s="1">
         <v>102</v>
@@ -2914,12 +2914,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3055,15 +3052,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F9D1A86-93D6-4367-903A-B7D1F5096104}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9613FD50-1727-42E0-8C9E-9E18D62B9503}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b1128b5e-e246-4c58-9678-c7dd1c578c1b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3087,17 +3095,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9613FD50-1727-42E0-8C9E-9E18D62B9503}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F9D1A86-93D6-4367-903A-B7D1F5096104}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b1128b5e-e246-4c58-9678-c7dd1c578c1b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>